--- a/xlsx/世界地理索引_intext.xlsx
+++ b/xlsx/世界地理索引_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="889">
   <si>
     <t>世界地理索引</t>
   </si>
@@ -29,7 +29,7 @@
     <t>各国历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界地理索引</t>
+    <t>政策_政策_美国_世界地理索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%96%87%E5%8C%96%E5%88%97%E8%A1%A8</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政府列表</t>
+    <t>各国政府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國政體列表</t>
+    <t>各国政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%B3%95%E5%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E5%8D%80%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國家地區代碼</t>
+    <t>国家地区代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%99%86%E5%9C%B0%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國旗列表</t>
+    <t>国旗列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%AD%8C%E5%88%97%E8%A1%A8</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國城市列表</t>
+    <t>各国城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E5%9F%B7%E6%94%BF%E9%BB%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國執政黨列表</t>
+    <t>各国执政党列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E5%88%97%E8%A1%A8</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E5%AD%98%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>殘存國家</t>
+    <t>残存国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>島嶼國家列表</t>
+    <t>岛屿国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E5%A4%9A%E4%B8%AA%E5%9B%BD%E5%AE%B6%E7%9A%84%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -263,19 +263,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E7%B6%AD%E5%A4%9A%E5%9C%8B%E5%AE%B6%E6%AC%8A%E5%88%A9%E7%BE%A9%E5%8B%99%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>蒙特維多國家權利義務公約</t>
+    <t>蒙特维多国家权利义务公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國會員國</t>
+    <t>联合国会员国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%9C%AD%E8%B5%AB</t>
   </si>
   <si>
-    <t>阿爾札赫</t>
+    <t>阿尔札赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%B6%85%E6%96%AF%E7%89%B9%E6%B2%B3%E6%B2%BF%E5%B2%B8</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -611,21 +611,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>庫克群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
   </si>
   <si>
@@ -653,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -1007,19 +1004,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BB%8D%E5%B0%94%E7%BE%A4%E5%B2%9B</t>
@@ -1049,19 +1046,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BE%85%E5%B0%BC%E8%A5%BF%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>密克羅尼西亞聯邦</t>
+    <t>密克罗尼西亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
@@ -1115,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -1139,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1193,19 +1190,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -1217,19 +1214,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
@@ -1241,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -1271,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
+    <t>圣多美和普林西比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>索馬利蘭</t>
+    <t>索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1355,7 +1352,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1367,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
@@ -1409,15 +1406,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华民国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
@@ -1433,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
@@ -1457,13 +1448,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1493,13 +1484,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1523,19 +1514,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦努阿圖</t>
+    <t>瓦努阿图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1547,19 +1538,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E6%8B%89%E5%A8%81%E9%98%BF%E6%8B%89%E4%BC%AF%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>撒拉威阿拉伯民主共和國</t>
+    <t>撒拉威阿拉伯民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1613,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>科科斯（基林）群島</t>
+    <t>科科斯（基林）群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2</t>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
@@ -1637,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF</t>
@@ -1673,19 +1664,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A1%9E%E6%8B%89%E7%89%B9</t>
@@ -1697,13 +1688,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1739,7 +1730,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4</t>
@@ -1751,37 +1742,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8B%9E</t>
   </si>
   <si>
-    <t>托克勞</t>
+    <t>托克劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納</t>
+    <t>瓦利斯和富图纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8_(%E6%8C%89%E6%B4%B2%E6%8E%92%E5%88%97)</t>
@@ -1817,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1835,21 +1826,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
@@ -1907,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1931,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -2033,9 +2015,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
   </si>
   <si>
@@ -2051,7 +2030,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -2075,31 +2054,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -2111,25 +2081,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
@@ -2153,7 +2123,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%BE%B7%E5%B3%B6%E5%92%8C%E9%BA%A5%E5%85%8B%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>赫德島和麥克唐納群島</t>
+    <t>赫德岛和麦克唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E4%B8%80%E4%B8%96%E5%B2%9B</t>
@@ -2165,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E5%BE%B7%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>凱爾德海岸</t>
+    <t>凯尔德海岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8C%A8%E5%9C%B0</t>
@@ -2255,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%94%E4%B8%96%E5%9C%B0</t>
   </si>
   <si>
-    <t>喬治五世地</t>
+    <t>乔治五世地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%A4%9A%E5%88%A9%E4%BA%9A%E5%9C%B0</t>
@@ -2267,31 +2237,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>南極高原</t>
+    <t>南极高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5</t>
   </si>
   <si>
-    <t>南極</t>
+    <t>南极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>南極半島</t>
+    <t>南极半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%8B%89%E6%BC%A2%E5%9C%B0</t>
   </si>
   <si>
-    <t>葛拉漢地</t>
+    <t>葛拉汉地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E6%96%AF%E6%B2%83%E6%80%9D%E5%9C%B0</t>
   </si>
   <si>
-    <t>埃爾斯沃思地</t>
+    <t>埃尔斯沃思地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BC%AF%E5%BE%B7%E5%9C%B0</t>
@@ -2303,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E4%B8%83%E4%B8%96%E5%9C%B0</t>
   </si>
   <si>
-    <t>愛德華七世地</t>
+    <t>爱德华七世地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%AE%BE%E5%BE%97%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
@@ -2315,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%88%BE%E9%BB%98%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>帕爾默群島</t>
+    <t>帕尔默群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%B8%80%E4%B8%96%E5%B2%9B</t>
@@ -2333,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>臺灣地區</t>
+    <t>台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
@@ -2345,21 +2315,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
   </si>
   <si>
-    <t>缅甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
   </si>
   <si>
@@ -2375,9 +2336,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
   </si>
   <si>
@@ -2399,9 +2357,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%93%88%E8%8C%B2</t>
   </si>
   <si>
-    <t>阿布哈茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -2417,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
@@ -2429,9 +2384,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
   </si>
   <si>
@@ -2441,9 +2393,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%BA%B3%E5%93%A5</t>
   </si>
   <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -2453,9 +2402,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
   </si>
   <si>
@@ -2465,15 +2411,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
-    <t>丹麦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
   </si>
   <si>
-    <t>冰岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
   </si>
   <si>
@@ -2483,15 +2423,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
   </si>
   <si>
-    <t>波兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
   </si>
   <si>
@@ -2501,27 +2435,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
   </si>
   <si>
@@ -2531,21 +2456,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
   </si>
   <si>
@@ -2555,21 +2474,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
-    <t>聖座</t>
+    <t>圣座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
   </si>
   <si>
@@ -2579,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
@@ -2591,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
@@ -2609,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大拉西亞</t>
+    <t>澳大拉西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BB%80%E8%8E%AB%E5%B0%94%E5%92%8C%E5%8D%A1%E6%8D%B7%E7%BE%A4%E5%B2%9B</t>
@@ -2633,33 +2546,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%B9%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬紹爾群島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E9%AD%AF</t>
   </si>
   <si>
-    <t>諾魯</t>
+    <t>诺鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%8B%89%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
@@ -2669,45 +2573,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
   </si>
   <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0</t>
   </si>
   <si>
-    <t>東加</t>
+    <t>东加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
   </si>
   <si>
-    <t>新西兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
   </si>
   <si>
@@ -2717,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2735,13 +2624,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2759,37 +2648,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
   </si>
   <si>
-    <t>托克劳</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80%E5%B3%B6</t>
   </si>
   <si>
-    <t>復活節島</t>
+    <t>复活节岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%B9%AB%E9%82%A6</t>
   </si>
   <si>
-    <t>聯繫邦</t>
+    <t>联系邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
@@ -6127,7 +6010,7 @@
         <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6153,10 +6036,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -6182,10 +6065,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6211,10 +6094,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6240,10 +6123,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -6269,10 +6152,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -6298,10 +6181,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6327,10 +6210,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6356,10 +6239,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6385,10 +6268,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -6414,10 +6297,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6472,10 +6355,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -6501,10 +6384,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -6530,10 +6413,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6559,10 +6442,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -6588,10 +6471,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -6617,10 +6500,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6646,10 +6529,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6675,10 +6558,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6704,10 +6587,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6733,10 +6616,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>7</v>
@@ -6762,10 +6645,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6791,10 +6674,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -6820,10 +6703,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -6849,10 +6732,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6878,10 +6761,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6907,10 +6790,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6936,10 +6819,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6965,10 +6848,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6994,10 +6877,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>11</v>
@@ -7023,10 +6906,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -7052,10 +6935,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -7081,10 +6964,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7110,10 +6993,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7139,10 +7022,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -7168,10 +7051,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7197,10 +7080,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>7</v>
@@ -7226,10 +7109,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7255,10 +7138,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -7284,10 +7167,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7313,10 +7196,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -7342,10 +7225,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7371,10 +7254,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7400,10 +7283,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -7429,10 +7312,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -7458,10 +7341,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -7487,10 +7370,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -7516,10 +7399,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7545,10 +7428,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7574,10 +7457,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7603,10 +7486,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7632,10 +7515,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7661,10 +7544,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7690,10 +7573,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7719,10 +7602,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7748,10 +7631,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -7777,10 +7660,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7806,10 +7689,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7835,10 +7718,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7893,10 +7776,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>318</v>
+      </c>
+      <c r="F164" t="s">
         <v>319</v>
-      </c>
-      <c r="F164" t="s">
-        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7922,10 +7805,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F165" t="s">
         <v>321</v>
-      </c>
-      <c r="F165" t="s">
-        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7951,10 +7834,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>322</v>
+      </c>
+      <c r="F166" t="s">
         <v>323</v>
-      </c>
-      <c r="F166" t="s">
-        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -7980,10 +7863,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>324</v>
+      </c>
+      <c r="F167" t="s">
         <v>325</v>
-      </c>
-      <c r="F167" t="s">
-        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -8009,10 +7892,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>326</v>
+      </c>
+      <c r="F168" t="s">
         <v>327</v>
-      </c>
-      <c r="F168" t="s">
-        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8038,10 +7921,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>328</v>
+      </c>
+      <c r="F169" t="s">
         <v>329</v>
-      </c>
-      <c r="F169" t="s">
-        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8067,10 +7950,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>8</v>
@@ -8096,10 +7979,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -8125,10 +8008,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8154,10 +8037,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -8183,10 +8066,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8212,10 +8095,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -8241,10 +8124,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8270,10 +8153,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8299,10 +8182,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8328,10 +8211,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8357,10 +8240,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8386,10 +8269,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -8415,10 +8298,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -8444,10 +8327,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8473,10 +8356,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8502,10 +8385,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8531,10 +8414,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -8560,10 +8443,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8589,10 +8472,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8618,10 +8501,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8647,10 +8530,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8676,10 +8559,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8705,10 +8588,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -8734,10 +8617,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -8763,10 +8646,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8792,10 +8675,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>3</v>
@@ -8821,10 +8704,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8850,10 +8733,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8879,10 +8762,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8908,10 +8791,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8937,10 +8820,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8966,10 +8849,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8995,10 +8878,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9024,10 +8907,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -9053,10 +8936,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -9082,10 +8965,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -9111,10 +8994,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9140,10 +9023,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9169,10 +9052,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9198,10 +9081,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" t="s">
         <v>409</v>
-      </c>
-      <c r="F209" t="s">
-        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9227,10 +9110,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
         <v>411</v>
-      </c>
-      <c r="F210" t="s">
-        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9256,10 +9139,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211" t="s">
         <v>413</v>
-      </c>
-      <c r="F211" t="s">
-        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -9285,10 +9168,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="F212" t="s">
         <v>415</v>
-      </c>
-      <c r="F212" t="s">
-        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>3</v>
@@ -9314,10 +9197,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213" t="s">
         <v>417</v>
-      </c>
-      <c r="F213" t="s">
-        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9343,10 +9226,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" t="s">
         <v>419</v>
-      </c>
-      <c r="F214" t="s">
-        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9372,10 +9255,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
         <v>421</v>
-      </c>
-      <c r="F215" t="s">
-        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -9401,10 +9284,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>422</v>
+      </c>
+      <c r="F216" t="s">
         <v>423</v>
-      </c>
-      <c r="F216" t="s">
-        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9430,10 +9313,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>424</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
-      </c>
-      <c r="F217" t="s">
-        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9459,10 +9342,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" t="s">
         <v>427</v>
-      </c>
-      <c r="F218" t="s">
-        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -9488,10 +9371,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>428</v>
+      </c>
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219" t="s">
-        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9517,10 +9400,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>430</v>
+      </c>
+      <c r="F220" t="s">
         <v>431</v>
-      </c>
-      <c r="F220" t="s">
-        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9546,10 +9429,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" t="s">
         <v>433</v>
-      </c>
-      <c r="F221" t="s">
-        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9575,10 +9458,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>434</v>
+      </c>
+      <c r="F222" t="s">
         <v>435</v>
-      </c>
-      <c r="F222" t="s">
-        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9604,10 +9487,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" t="s">
         <v>437</v>
-      </c>
-      <c r="F223" t="s">
-        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9633,10 +9516,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" t="s">
         <v>439</v>
-      </c>
-      <c r="F224" t="s">
-        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9662,10 +9545,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" t="s">
         <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9691,10 +9574,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
         <v>443</v>
-      </c>
-      <c r="F226" t="s">
-        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9720,10 +9603,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" t="s">
         <v>445</v>
-      </c>
-      <c r="F227" t="s">
-        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9749,10 +9632,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>446</v>
+      </c>
+      <c r="F228" t="s">
         <v>447</v>
-      </c>
-      <c r="F228" t="s">
-        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9778,10 +9661,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>448</v>
+      </c>
+      <c r="F229" t="s">
         <v>449</v>
-      </c>
-      <c r="F229" t="s">
-        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9807,10 +9690,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>450</v>
+      </c>
+      <c r="F230" t="s">
         <v>451</v>
-      </c>
-      <c r="F230" t="s">
-        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>6</v>
@@ -9836,10 +9719,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>452</v>
+      </c>
+      <c r="F231" t="s">
         <v>453</v>
-      </c>
-      <c r="F231" t="s">
-        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9865,10 +9748,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>454</v>
+      </c>
+      <c r="F232" t="s">
         <v>455</v>
-      </c>
-      <c r="F232" t="s">
-        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9894,10 +9777,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>456</v>
+      </c>
+      <c r="F233" t="s">
         <v>457</v>
-      </c>
-      <c r="F233" t="s">
-        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9923,10 +9806,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>458</v>
+      </c>
+      <c r="F234" t="s">
         <v>459</v>
-      </c>
-      <c r="F234" t="s">
-        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -9952,10 +9835,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>460</v>
+      </c>
+      <c r="F235" t="s">
         <v>461</v>
-      </c>
-      <c r="F235" t="s">
-        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9981,10 +9864,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10010,10 +9893,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>106</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10039,10 +9922,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -10068,10 +9951,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -10097,10 +9980,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10126,10 +10009,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -10155,10 +10038,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -10184,10 +10067,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10213,10 +10096,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10242,10 +10125,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10271,10 +10154,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -10300,10 +10183,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10329,10 +10212,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10358,10 +10241,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>3</v>
@@ -10387,10 +10270,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10416,10 +10299,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10445,10 +10328,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>8</v>
@@ -10474,10 +10357,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10503,10 +10386,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>3</v>
@@ -10532,10 +10415,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10561,10 +10444,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10590,10 +10473,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10619,10 +10502,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10648,10 +10531,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10677,10 +10560,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10706,10 +10589,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10735,10 +10618,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10764,10 +10647,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10793,10 +10676,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10822,10 +10705,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10851,10 +10734,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10880,10 +10763,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -10909,10 +10792,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10938,10 +10821,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10967,10 +10850,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -10996,10 +10879,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11025,10 +10908,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11054,10 +10937,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -11083,10 +10966,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11112,10 +10995,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -11141,10 +11024,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11170,10 +11053,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11199,10 +11082,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -11228,10 +11111,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G279" t="n">
         <v>5</v>
@@ -11257,10 +11140,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11286,10 +11169,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11315,10 +11198,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11344,10 +11227,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11373,10 +11256,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11402,10 +11285,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11431,10 +11314,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -11460,10 +11343,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11489,10 +11372,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11518,10 +11401,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11547,10 +11430,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11576,10 +11459,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11605,10 +11488,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11634,10 +11517,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11663,10 +11546,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11692,10 +11575,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11721,10 +11604,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11750,10 +11633,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11779,10 +11662,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11808,10 +11691,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11837,10 +11720,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>8</v>
@@ -11866,10 +11749,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>10</v>
@@ -11895,10 +11778,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11924,10 +11807,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>312</v>
+      </c>
+      <c r="F303" t="s">
         <v>313</v>
-      </c>
-      <c r="F303" t="s">
-        <v>314</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11953,10 +11836,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F304" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -11982,10 +11865,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12011,10 +11894,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>258</v>
+      </c>
+      <c r="F306" t="s">
         <v>259</v>
-      </c>
-      <c r="F306" t="s">
-        <v>260</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12040,10 +11923,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F307" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12069,10 +11952,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>372</v>
+      </c>
+      <c r="F308" t="s">
         <v>373</v>
-      </c>
-      <c r="F308" t="s">
-        <v>374</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12098,10 +11981,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12127,10 +12010,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12156,10 +12039,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>198</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12185,10 +12068,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>200</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12214,10 +12097,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>417</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12243,10 +12126,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12272,10 +12155,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12301,10 +12184,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12330,10 +12213,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12359,10 +12242,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12417,10 +12300,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12446,10 +12329,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>294</v>
+      </c>
+      <c r="F321" t="s">
         <v>295</v>
-      </c>
-      <c r="F321" t="s">
-        <v>296</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12475,10 +12358,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12504,10 +12387,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>444</v>
+      </c>
+      <c r="F323" t="s">
         <v>445</v>
-      </c>
-      <c r="F323" t="s">
-        <v>446</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12533,10 +12416,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12562,10 +12445,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G325" t="n">
         <v>5</v>
@@ -12591,10 +12474,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12620,10 +12503,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12649,10 +12532,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12678,10 +12561,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12707,10 +12590,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12736,10 +12619,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12765,10 +12648,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12794,10 +12677,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>3</v>
@@ -12852,10 +12735,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12881,10 +12764,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12910,10 +12793,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12939,10 +12822,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12968,10 +12851,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12997,10 +12880,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>7</v>
@@ -13026,10 +12909,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>6</v>
@@ -13055,10 +12938,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>6</v>
@@ -13084,10 +12967,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>5</v>
@@ -13113,10 +12996,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>7</v>
@@ -13171,10 +13054,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13200,10 +13083,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13229,10 +13112,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13258,10 +13141,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>227</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13287,10 +13170,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>256</v>
+      </c>
+      <c r="F350" t="s">
         <v>257</v>
-      </c>
-      <c r="F350" t="s">
-        <v>258</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13316,10 +13199,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13345,10 +13228,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13374,10 +13257,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13403,10 +13286,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13432,10 +13315,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>406</v>
+      </c>
+      <c r="F355" t="s">
         <v>407</v>
-      </c>
-      <c r="F355" t="s">
-        <v>408</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13461,10 +13344,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>408</v>
+      </c>
+      <c r="F356" t="s">
         <v>409</v>
-      </c>
-      <c r="F356" t="s">
-        <v>410</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13490,10 +13373,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13519,10 +13402,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F358" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13548,10 +13431,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F359" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13606,10 +13489,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>194</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13635,10 +13518,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>521</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13664,10 +13547,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13693,10 +13576,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F364" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13722,10 +13605,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>525</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13751,10 +13634,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13780,10 +13663,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F367" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13809,10 +13692,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F368" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13838,10 +13721,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F369" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13867,10 +13750,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F370" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13896,10 +13779,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F371" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13925,10 +13808,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F372" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13954,10 +13837,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F373" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13983,10 +13866,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F374" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14012,10 +13895,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F375" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14041,10 +13924,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F376" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14070,10 +13953,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F377" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14099,10 +13982,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F378" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14128,10 +14011,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F379" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14157,10 +14040,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F380" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14186,10 +14069,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F381" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14215,10 +14098,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F382" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14244,10 +14127,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F383" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14273,10 +14156,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F384" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14302,10 +14185,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F385" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14331,10 +14214,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F386" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14360,10 +14243,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F387" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14389,10 +14272,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F388" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14418,10 +14301,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F389" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14447,10 +14330,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F390" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14476,10 +14359,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F391" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14505,10 +14388,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F392" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14534,10 +14417,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F393" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14563,10 +14446,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F394" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14592,10 +14475,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F395" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14621,10 +14504,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F396" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14650,10 +14533,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F397" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14679,10 +14562,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F398" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14708,10 +14591,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F399" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14737,10 +14620,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F400" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14766,10 +14649,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F401" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14795,10 +14678,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F402" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14824,10 +14707,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F403" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14853,10 +14736,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F404" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14882,10 +14765,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F405" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14911,10 +14794,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F406" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14940,10 +14823,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F407" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14969,10 +14852,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F408" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15027,10 +14910,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15056,10 +14939,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F411" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15085,10 +14968,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F412" t="s">
-        <v>776</v>
+        <v>393</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15114,10 +14997,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="F413" t="s">
-        <v>778</v>
+        <v>357</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15143,10 +15026,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="F414" t="s">
-        <v>780</v>
+        <v>469</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15172,10 +15055,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F415" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15201,10 +15084,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F416" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15230,10 +15113,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F417" t="s">
-        <v>786</v>
+        <v>449</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15259,10 +15142,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F418" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15288,10 +15171,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F419" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G419" t="n">
         <v>14</v>
@@ -15317,10 +15200,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F420" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15346,10 +15229,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F421" t="s">
-        <v>794</v>
+        <v>92</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15375,10 +15258,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F422" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15404,10 +15287,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="F423" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -15433,10 +15316,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="F424" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15462,10 +15345,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="F425" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15491,10 +15374,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="F426" t="s">
-        <v>804</v>
+        <v>403</v>
       </c>
       <c r="G426" t="n">
         <v>5</v>
@@ -15520,10 +15403,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F427" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15578,10 +15461,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F429" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15607,10 +15490,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F430" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15636,10 +15519,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F431" t="s">
-        <v>808</v>
+        <v>347</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15665,10 +15548,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F432" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G432" t="n">
         <v>14</v>
@@ -15694,10 +15577,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="F433" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="G433" t="n">
         <v>3</v>
@@ -15723,10 +15606,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="F434" t="s">
-        <v>812</v>
+        <v>154</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15752,10 +15635,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="F435" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15781,10 +15664,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="F436" t="s">
-        <v>816</v>
+        <v>215</v>
       </c>
       <c r="G436" t="n">
         <v>4</v>
@@ -15810,10 +15693,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="F437" t="s">
-        <v>818</v>
+        <v>271</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15839,10 +15722,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="F438" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15868,10 +15751,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="F439" t="s">
-        <v>822</v>
+        <v>249</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15897,10 +15780,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="F440" t="s">
-        <v>824</v>
+        <v>395</v>
       </c>
       <c r="G440" t="n">
         <v>2</v>
@@ -15926,10 +15809,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="F441" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15955,10 +15838,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="F442" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15984,10 +15867,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
       <c r="F443" t="s">
-        <v>830</v>
+        <v>152</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -16013,10 +15896,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="F444" t="s">
-        <v>832</v>
+        <v>489</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16042,10 +15925,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="F445" t="s">
-        <v>834</v>
+        <v>345</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16071,10 +15954,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="F446" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16100,10 +15983,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="F447" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16129,10 +16012,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>350</v>
+      </c>
+      <c r="F448" t="s">
         <v>351</v>
-      </c>
-      <c r="F448" t="s">
-        <v>352</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16187,10 +16070,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="F450" t="s">
-        <v>840</v>
+        <v>172</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16216,10 +16099,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="F451" t="s">
-        <v>842</v>
+        <v>423</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -16245,10 +16128,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="F452" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16274,10 +16157,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>253</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16303,10 +16186,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>819</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>820</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16332,10 +16215,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>849</v>
+        <v>821</v>
       </c>
       <c r="F455" t="s">
-        <v>850</v>
+        <v>88</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16361,10 +16244,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="F456" t="s">
-        <v>852</v>
+        <v>823</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16390,10 +16273,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F457" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -16419,10 +16302,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F458" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16448,10 +16331,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>853</v>
+        <v>824</v>
       </c>
       <c r="F459" t="s">
-        <v>854</v>
+        <v>825</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16477,10 +16360,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>855</v>
+        <v>826</v>
       </c>
       <c r="F460" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16506,10 +16389,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>857</v>
+        <v>828</v>
       </c>
       <c r="F461" t="s">
-        <v>858</v>
+        <v>829</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16535,10 +16418,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>859</v>
+        <v>830</v>
       </c>
       <c r="F462" t="s">
-        <v>860</v>
+        <v>831</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16564,10 +16447,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>861</v>
+        <v>832</v>
       </c>
       <c r="F463" t="s">
-        <v>862</v>
+        <v>833</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16593,10 +16476,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>863</v>
+        <v>834</v>
       </c>
       <c r="F464" t="s">
-        <v>864</v>
+        <v>835</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -16622,10 +16505,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>865</v>
+        <v>836</v>
       </c>
       <c r="F465" t="s">
-        <v>866</v>
+        <v>837</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16651,10 +16534,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>867</v>
+        <v>838</v>
       </c>
       <c r="F466" t="s">
-        <v>868</v>
+        <v>839</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16680,10 +16563,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>869</v>
+        <v>840</v>
       </c>
       <c r="F467" t="s">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -16709,10 +16592,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
       <c r="F468" t="s">
-        <v>872</v>
+        <v>343</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -16738,10 +16621,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>873</v>
+        <v>843</v>
       </c>
       <c r="F469" t="s">
-        <v>874</v>
+        <v>335</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -16767,10 +16650,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="F470" t="s">
-        <v>876</v>
+        <v>845</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16796,10 +16679,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>877</v>
+        <v>846</v>
       </c>
       <c r="F471" t="s">
-        <v>878</v>
+        <v>847</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16825,10 +16708,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>879</v>
+        <v>848</v>
       </c>
       <c r="F472" t="s">
-        <v>880</v>
+        <v>559</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -16854,10 +16737,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
       <c r="F473" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16883,10 +16766,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="F474" t="s">
-        <v>884</v>
+        <v>501</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -16912,10 +16795,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="F475" t="s">
-        <v>886</v>
+        <v>237</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16941,10 +16824,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="F476" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="G476" t="n">
         <v>3</v>
@@ -16970,10 +16853,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="F477" t="s">
-        <v>890</v>
+        <v>485</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16999,10 +16882,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="F478" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17028,10 +16911,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="F479" t="s">
-        <v>894</v>
+        <v>118</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17057,10 +16940,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="F480" t="s">
-        <v>896</v>
+        <v>367</v>
       </c>
       <c r="G480" t="n">
         <v>8</v>
@@ -17086,10 +16969,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>897</v>
+        <v>860</v>
       </c>
       <c r="F481" t="s">
-        <v>898</v>
+        <v>861</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17115,10 +16998,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>899</v>
+        <v>862</v>
       </c>
       <c r="F482" t="s">
-        <v>900</v>
+        <v>863</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17144,10 +17027,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>901</v>
+        <v>864</v>
       </c>
       <c r="F483" t="s">
-        <v>902</v>
+        <v>865</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17173,10 +17056,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>903</v>
+        <v>866</v>
       </c>
       <c r="F484" t="s">
-        <v>904</v>
+        <v>867</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17202,10 +17085,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="F485" t="s">
-        <v>906</v>
+        <v>869</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17231,10 +17114,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>907</v>
+        <v>870</v>
       </c>
       <c r="F486" t="s">
-        <v>908</v>
+        <v>871</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17260,10 +17143,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>909</v>
+        <v>872</v>
       </c>
       <c r="F487" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17289,10 +17172,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="F488" t="s">
-        <v>912</v>
+        <v>875</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17318,10 +17201,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>913</v>
+        <v>876</v>
       </c>
       <c r="F489" t="s">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17347,10 +17230,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="F490" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17376,10 +17259,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="F491" t="s">
-        <v>918</v>
+        <v>575</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17405,10 +17288,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
       <c r="F492" t="s">
-        <v>920</v>
+        <v>517</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17434,10 +17317,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>921</v>
+        <v>882</v>
       </c>
       <c r="F493" t="s">
-        <v>922</v>
+        <v>883</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17463,10 +17346,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>274</v>
+      </c>
+      <c r="F494" t="s">
         <v>275</v>
-      </c>
-      <c r="F494" t="s">
-        <v>276</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17492,10 +17375,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>923</v>
+        <v>884</v>
       </c>
       <c r="F495" t="s">
-        <v>924</v>
+        <v>885</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -17521,10 +17404,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>925</v>
+        <v>886</v>
       </c>
       <c r="F496" t="s">
-        <v>926</v>
+        <v>887</v>
       </c>
       <c r="G496" t="n">
         <v>3</v>
@@ -17550,10 +17433,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>925</v>
+        <v>886</v>
       </c>
       <c r="F497" t="s">
-        <v>927</v>
+        <v>888</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>

--- a/xlsx/世界地理索引_intext.xlsx
+++ b/xlsx/世界地理索引_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="940">
   <si>
     <t>世界地理索引</t>
   </si>
@@ -29,7 +29,7 @@
     <t>各国历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界地理索引</t>
+    <t>体育运动_体育运动_伊朗_世界地理索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%96%87%E5%8C%96%E5%88%97%E8%A1%A8</t>
@@ -2444,6 +2444,30 @@
     <t>摩纳哥</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -2498,10 +2522,16 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -2522,10 +2552,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
@@ -2558,18 +2588,18 @@
     <t>希腊</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
   </si>
   <si>
@@ -2604,6 +2634,12 @@
   </si>
   <si>
     <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9E</t>
@@ -3147,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I497"/>
+  <dimension ref="A1:I504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7319,7 +7355,7 @@
         <v>282</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -15497,7 +15533,7 @@
         <v>804</v>
       </c>
       <c r="G426" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15584,7 +15620,7 @@
         <v>662</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
@@ -15700,7 +15736,7 @@
         <v>810</v>
       </c>
       <c r="G433" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
@@ -15729,7 +15765,7 @@
         <v>812</v>
       </c>
       <c r="G434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H434" t="s">
         <v>4</v>
@@ -15787,7 +15823,7 @@
         <v>816</v>
       </c>
       <c r="G436" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H436" t="s">
         <v>4</v>
@@ -15816,7 +15852,7 @@
         <v>818</v>
       </c>
       <c r="G437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -15845,7 +15881,7 @@
         <v>820</v>
       </c>
       <c r="G438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438" t="s">
         <v>4</v>
@@ -15903,7 +15939,7 @@
         <v>824</v>
       </c>
       <c r="G440" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H440" t="s">
         <v>4</v>
@@ -15932,7 +15968,7 @@
         <v>826</v>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H441" t="s">
         <v>4</v>
@@ -15990,7 +16026,7 @@
         <v>830</v>
       </c>
       <c r="G443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H443" t="s">
         <v>4</v>
@@ -16048,7 +16084,7 @@
         <v>834</v>
       </c>
       <c r="G445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H445" t="s">
         <v>4</v>
@@ -16129,10 +16165,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>351</v>
+        <v>839</v>
       </c>
       <c r="F448" t="s">
-        <v>352</v>
+        <v>840</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16158,13 +16194,13 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>121</v>
+        <v>841</v>
       </c>
       <c r="F449" t="s">
-        <v>122</v>
+        <v>842</v>
       </c>
       <c r="G449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16187,13 +16223,13 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F450" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16216,13 +16252,13 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="F451" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -16245,10 +16281,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F452" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16274,10 +16310,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>351</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>352</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16303,10 +16339,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>121</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16367,7 +16403,7 @@
         <v>852</v>
       </c>
       <c r="G456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H456" t="s">
         <v>4</v>
@@ -16390,13 +16426,13 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>551</v>
+        <v>853</v>
       </c>
       <c r="F457" t="s">
-        <v>552</v>
+        <v>854</v>
       </c>
       <c r="G457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H457" t="s">
         <v>4</v>
@@ -16419,13 +16455,13 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>553</v>
+        <v>855</v>
       </c>
       <c r="F458" t="s">
-        <v>554</v>
+        <v>856</v>
       </c>
       <c r="G458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16448,10 +16484,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="F459" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16477,10 +16513,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F460" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16506,10 +16542,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>857</v>
+        <v>73</v>
       </c>
       <c r="F461" t="s">
-        <v>858</v>
+        <v>74</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16535,10 +16571,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F462" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16564,13 +16600,13 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>861</v>
+        <v>551</v>
       </c>
       <c r="F463" t="s">
-        <v>862</v>
+        <v>552</v>
       </c>
       <c r="G463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -16593,13 +16629,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>863</v>
+        <v>553</v>
       </c>
       <c r="F464" t="s">
-        <v>864</v>
+        <v>554</v>
       </c>
       <c r="G464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -16622,10 +16658,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F465" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16651,10 +16687,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F466" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16680,13 +16716,13 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F467" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H467" t="s">
         <v>4</v>
@@ -16709,13 +16745,13 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F468" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G468" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H468" t="s">
         <v>4</v>
@@ -16738,13 +16774,13 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F469" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H469" t="s">
         <v>4</v>
@@ -16767,10 +16803,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F470" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16796,13 +16832,13 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F471" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H471" t="s">
         <v>4</v>
@@ -16825,13 +16861,13 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F472" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -16854,10 +16890,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F473" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16883,10 +16919,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F474" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -16912,13 +16948,13 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F475" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G475" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H475" t="s">
         <v>4</v>
@@ -16941,13 +16977,13 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F476" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -16970,10 +17006,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F477" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16999,10 +17035,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F478" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17028,10 +17064,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F479" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17057,13 +17093,13 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F480" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G480" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H480" t="s">
         <v>4</v>
@@ -17086,13 +17122,13 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F481" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481" t="s">
         <v>4</v>
@@ -17115,10 +17151,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F482" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17144,13 +17180,13 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F483" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G483" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H483" t="s">
         <v>4</v>
@@ -17173,10 +17209,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F484" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17202,10 +17238,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F485" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17231,13 +17267,13 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F486" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G486" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -17260,13 +17296,13 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F487" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G487" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H487" t="s">
         <v>4</v>
@@ -17289,10 +17325,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F488" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17318,10 +17354,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F489" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17347,10 +17383,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F490" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17376,10 +17412,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F491" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17405,10 +17441,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F492" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17434,10 +17470,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F493" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17463,13 +17499,13 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>275</v>
+        <v>921</v>
       </c>
       <c r="F494" t="s">
-        <v>276</v>
+        <v>922</v>
       </c>
       <c r="G494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -17498,7 +17534,7 @@
         <v>924</v>
       </c>
       <c r="G495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H495" t="s">
         <v>4</v>
@@ -17527,7 +17563,7 @@
         <v>926</v>
       </c>
       <c r="G496" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -17550,10 +17586,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F497" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17562,6 +17598,209 @@
         <v>4</v>
       </c>
       <c r="I497" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1</v>
+      </c>
+      <c r="D498" t="n">
+        <v>497</v>
+      </c>
+      <c r="E498" t="s">
+        <v>929</v>
+      </c>
+      <c r="F498" t="s">
+        <v>930</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="s">
+        <v>4</v>
+      </c>
+      <c r="I498" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1</v>
+      </c>
+      <c r="D499" t="n">
+        <v>498</v>
+      </c>
+      <c r="E499" t="s">
+        <v>931</v>
+      </c>
+      <c r="F499" t="s">
+        <v>932</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1</v>
+      </c>
+      <c r="H499" t="s">
+        <v>4</v>
+      </c>
+      <c r="I499" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1</v>
+      </c>
+      <c r="D500" t="n">
+        <v>499</v>
+      </c>
+      <c r="E500" t="s">
+        <v>933</v>
+      </c>
+      <c r="F500" t="s">
+        <v>934</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1</v>
+      </c>
+      <c r="H500" t="s">
+        <v>4</v>
+      </c>
+      <c r="I500" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501" t="n">
+        <v>500</v>
+      </c>
+      <c r="E501" t="s">
+        <v>275</v>
+      </c>
+      <c r="F501" t="s">
+        <v>276</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2</v>
+      </c>
+      <c r="H501" t="s">
+        <v>4</v>
+      </c>
+      <c r="I501" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1</v>
+      </c>
+      <c r="D502" t="n">
+        <v>501</v>
+      </c>
+      <c r="E502" t="s">
+        <v>935</v>
+      </c>
+      <c r="F502" t="s">
+        <v>936</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2</v>
+      </c>
+      <c r="H502" t="s">
+        <v>4</v>
+      </c>
+      <c r="I502" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1</v>
+      </c>
+      <c r="D503" t="n">
+        <v>502</v>
+      </c>
+      <c r="E503" t="s">
+        <v>937</v>
+      </c>
+      <c r="F503" t="s">
+        <v>938</v>
+      </c>
+      <c r="G503" t="n">
+        <v>3</v>
+      </c>
+      <c r="H503" t="s">
+        <v>4</v>
+      </c>
+      <c r="I503" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1</v>
+      </c>
+      <c r="D504" t="n">
+        <v>503</v>
+      </c>
+      <c r="E504" t="s">
+        <v>937</v>
+      </c>
+      <c r="F504" t="s">
+        <v>939</v>
+      </c>
+      <c r="G504" t="n">
+        <v>1</v>
+      </c>
+      <c r="H504" t="s">
+        <v>4</v>
+      </c>
+      <c r="I504" t="n">
         <v>3</v>
       </c>
     </row>
